--- a/suivi_remarques.xlsx
+++ b/suivi_remarques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameli\Documents\cgt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F08855-CA53-4D2F-B215-38B5C84DD127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B5300B-F9E8-4D3A-B7DF-0617860E9CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46DD0DCB-23AA-409B-A027-FB0A320892AD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -162,6 +162,18 @@
       </rPr>
       <t>-En attente coordonnées CCAS</t>
     </r>
+  </si>
+  <si>
+    <t>le site sera-t-il décliné avec des onglets représentant les sections???</t>
+  </si>
+  <si>
+    <t>ajout classe "deroulant" dans sous-menu nav</t>
+  </si>
+  <si>
+    <t>Ajout menu déroulant "sections" -&gt; ICT &amp; Territoriaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifications design </t>
   </si>
 </sst>
 </file>
@@ -421,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -480,6 +492,39 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -501,38 +546,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +866,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,37 +874,37 @@
     <col min="1" max="2" width="11.5546875" style="1"/>
     <col min="3" max="3" width="114.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="1"/>
-    <col min="5" max="5" width="67.21875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="35.88671875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="67.21875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" style="28" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="31"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -904,10 +919,10 @@
       <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -921,10 +936,10 @@
       <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -941,7 +956,12 @@
       <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="D6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -954,10 +974,10 @@
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -974,10 +994,10 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -994,30 +1014,42 @@
       <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="3"/>
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>43943</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1025,7 +1057,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,7 +1065,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1041,7 +1073,7 @@
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1049,7 +1081,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1057,7 +1089,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="31"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1065,7 +1097,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="31"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1073,7 +1105,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1081,7 +1113,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1089,7 +1121,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1097,7 +1129,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1105,7 +1137,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1113,7 +1145,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1121,7 +1153,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1129,7 +1161,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="31"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1137,7 +1169,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1145,7 +1177,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1153,7 +1185,7 @@
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1161,7 +1193,7 @@
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1169,7 +1201,7 @@
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1177,8 +1209,8 @@
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="37"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
